--- a/xlsx/世界银行_intext.xlsx
+++ b/xlsx/世界银行_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界銀行集團</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界银行</t>
+    <t>体育运动_体育运动_欧洲议会_世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%B3%BB%E7%BB%9F</t>
@@ -7706,7 +7706,7 @@
         <v>228</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -11012,7 +11012,7 @@
         <v>456</v>
       </c>
       <c r="G228" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -16986,7 +16986,7 @@
         <v>396</v>
       </c>
       <c r="G434" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
